--- a/temporal_landing/2021_income.xlsx
+++ b/temporal_landing/2021_income.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Zhengyong Ji\Documents\GitHub\MDS-ADSDB-Proj1-JiJonas\temporal_landing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA8A0BB5-DC42-41CE-8DB4-0CE7AB3B76AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C99E5A57-9A1A-4683-AE6D-551C26889AB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" xr2:uid="{211FD04A-B6F7-48AA-80CF-74D83E9D930D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{211FD04A-B6F7-48AA-80CF-74D83E9D930D}"/>
   </bookViews>
   <sheets>
     <sheet name="renda" sheetId="2" r:id="rId1"/>
@@ -906,15 +906,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93F8ACD9-6F5C-4A4C-A216-AAB4E92A43FD}">
-  <dimension ref="A1:F75"/>
+  <dimension ref="A1:I75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>156</v>
       </c>
@@ -934,7 +934,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>157</v>
       </c>
@@ -942,19 +942,19 @@
         <v>150</v>
       </c>
       <c r="C2" s="2">
-        <v>11.178000000000001</v>
+        <v>11178</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E2" s="2">
-        <v>11.919</v>
+      <c r="E2">
+        <v>11919</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>157</v>
       </c>
@@ -962,19 +962,19 @@
         <v>148</v>
       </c>
       <c r="C3" s="2">
-        <v>15.99</v>
+        <v>15990</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="E3" s="2">
-        <v>18.667999999999999</v>
+      <c r="E3">
+        <v>18668</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>157</v>
       </c>
@@ -982,19 +982,20 @@
         <v>146</v>
       </c>
       <c r="C4" s="2">
-        <v>14.943</v>
+        <v>14943</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="E4" s="2">
-        <v>15.659000000000001</v>
+      <c r="E4">
+        <v>15659</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="58" x14ac:dyDescent="0.35">
+      <c r="I4" s="4"/>
+    </row>
+    <row r="5" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>157</v>
       </c>
@@ -1002,19 +1003,19 @@
         <v>144</v>
       </c>
       <c r="C5" s="2">
-        <v>16.77</v>
+        <v>16770</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E5" s="2">
-        <v>19.731000000000002</v>
+      <c r="E5">
+        <v>19731</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>158</v>
       </c>
@@ -1022,19 +1023,19 @@
         <v>142</v>
       </c>
       <c r="C6" s="2">
-        <v>21.445</v>
+        <v>21445</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="E6" s="2">
-        <v>23.509</v>
+      <c r="E6">
+        <v>23509</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>158</v>
       </c>
@@ -1042,19 +1043,19 @@
         <v>140</v>
       </c>
       <c r="C7" s="2">
-        <v>20.986000000000001</v>
+        <v>20986</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="2">
-        <v>22.917000000000002</v>
+      <c r="E7">
+        <v>22917</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>158</v>
       </c>
@@ -1062,19 +1063,19 @@
         <v>139</v>
       </c>
       <c r="C8" s="2">
-        <v>27.492000000000001</v>
+        <v>27492</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="E8" s="2">
-        <v>34.280999999999999</v>
+      <c r="E8">
+        <v>34281</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>158</v>
       </c>
@@ -1082,19 +1083,19 @@
         <v>138</v>
       </c>
       <c r="C9" s="2">
-        <v>25.946000000000002</v>
+        <v>25946</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="E9" s="2">
-        <v>31.193999999999999</v>
+      <c r="E9">
+        <v>31194</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>158</v>
       </c>
@@ -1102,19 +1103,19 @@
         <v>136</v>
       </c>
       <c r="C10" s="2">
-        <v>23.731999999999999</v>
+        <v>23732</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="E10" s="2">
-        <v>26.303000000000001</v>
+      <c r="E10">
+        <v>26303</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>158</v>
       </c>
@@ -1122,19 +1123,19 @@
         <v>134</v>
       </c>
       <c r="C11" s="2">
-        <v>20.960999999999999</v>
+        <v>20961</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="E11" s="2">
-        <v>22.8</v>
+      <c r="E11">
+        <v>22800</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>159</v>
       </c>
@@ -1142,19 +1143,19 @@
         <v>166</v>
       </c>
       <c r="C12" s="2">
-        <v>15.253</v>
+        <v>15253</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="E12" s="2">
-        <v>16.222000000000001</v>
+      <c r="E12">
+        <v>16222.000000000002</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>159</v>
       </c>
@@ -1162,19 +1163,19 @@
         <v>167</v>
       </c>
       <c r="C13" s="2">
-        <v>13.323</v>
+        <v>13323</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="E13" s="2">
-        <v>12.661</v>
+      <c r="E13">
+        <v>12661</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>159</v>
       </c>
@@ -1182,19 +1183,19 @@
         <v>132</v>
       </c>
       <c r="C14" s="2">
-        <v>15.664999999999999</v>
+        <v>15665</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E14" s="2">
-        <v>15.627000000000001</v>
+      <c r="E14">
+        <v>15627</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>159</v>
       </c>
@@ -1202,19 +1203,19 @@
         <v>131</v>
       </c>
       <c r="C15" s="2">
-        <v>19.347000000000001</v>
+        <v>19347</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="E15" s="2">
-        <v>19.989000000000001</v>
+      <c r="E15">
+        <v>19989</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>159</v>
       </c>
@@ -1222,19 +1223,19 @@
         <v>130</v>
       </c>
       <c r="C16" s="2">
-        <v>18.236999999999998</v>
+        <v>18237</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E16" s="2">
-        <v>19.259</v>
+      <c r="E16">
+        <v>19259</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>159</v>
       </c>
@@ -1242,19 +1243,19 @@
         <v>128</v>
       </c>
       <c r="C17" s="2">
-        <v>18.722999999999999</v>
+        <v>18723</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E17" s="2">
-        <v>19.451000000000001</v>
+      <c r="E17">
+        <v>19451</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>159</v>
       </c>
@@ -1262,19 +1263,19 @@
         <v>127</v>
       </c>
       <c r="C18" s="2">
-        <v>18.045999999999999</v>
+        <v>18046</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E18" s="2">
-        <v>18.843</v>
+      <c r="E18">
+        <v>18843</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>159</v>
       </c>
@@ -1282,19 +1283,19 @@
         <v>126</v>
       </c>
       <c r="C19" s="2">
-        <v>20.367999999999999</v>
+        <v>20368</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E19" s="2">
-        <v>22.132999999999999</v>
+      <c r="E19">
+        <v>22133</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>160</v>
       </c>
@@ -1302,19 +1303,19 @@
         <v>125</v>
       </c>
       <c r="C20" s="2">
-        <v>27.113</v>
+        <v>27113</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="E20" s="2">
-        <v>30.888999999999999</v>
+      <c r="E20">
+        <v>30889</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>160</v>
       </c>
@@ -1322,19 +1323,19 @@
         <v>122</v>
       </c>
       <c r="C21" s="2">
-        <v>24.289000000000001</v>
+        <v>24289</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="E21" s="2">
-        <v>26.498999999999999</v>
+      <c r="E21">
+        <v>26499</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>160</v>
       </c>
@@ -1342,19 +1343,19 @@
         <v>120</v>
       </c>
       <c r="C22" s="2">
-        <v>37.591999999999999</v>
+        <v>37592</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="E22" s="2">
-        <v>50.524000000000001</v>
+      <c r="E22">
+        <v>50524</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>160</v>
       </c>
@@ -1362,19 +1363,19 @@
         <v>117</v>
       </c>
       <c r="C23" s="2">
-        <v>25.355</v>
+        <v>25355</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="E23" s="2">
-        <v>34.44</v>
+      <c r="E23">
+        <v>34440</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>161</v>
       </c>
@@ -1382,19 +1383,19 @@
         <v>114</v>
       </c>
       <c r="C24" s="2">
-        <v>33.481000000000002</v>
+        <v>33481</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="E24" s="2">
-        <v>46.222000000000001</v>
+      <c r="E24">
+        <v>46222</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>161</v>
       </c>
@@ -1402,19 +1403,19 @@
         <v>111</v>
       </c>
       <c r="C25" s="2">
-        <v>39.655000000000001</v>
+        <v>39655</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="E25" s="2">
-        <v>54.591000000000001</v>
+      <c r="E25">
+        <v>54591</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>161</v>
       </c>
@@ -1422,19 +1423,19 @@
         <v>108</v>
       </c>
       <c r="C26" s="2">
-        <v>34.469000000000001</v>
+        <v>34469</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="E26" s="2">
-        <v>45.927</v>
+      <c r="E26">
+        <v>45927</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>161</v>
       </c>
@@ -1442,19 +1443,19 @@
         <v>106</v>
       </c>
       <c r="C27" s="2">
-        <v>34.585999999999999</v>
+        <v>34586</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="E27" s="2">
-        <v>46.475999999999999</v>
+      <c r="E27">
+        <v>46476</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>161</v>
       </c>
@@ -1462,19 +1463,19 @@
         <v>103</v>
       </c>
       <c r="C28" s="2">
-        <v>27.673999999999999</v>
+        <v>27674</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="E28" s="2">
-        <v>34.521999999999998</v>
+      <c r="E28">
+        <v>34522</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>162</v>
       </c>
@@ -1482,19 +1483,19 @@
         <v>100</v>
       </c>
       <c r="C29" s="2">
-        <v>24.033999999999999</v>
+        <v>24034</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="E29" s="2">
-        <v>27.997</v>
+      <c r="E29">
+        <v>27997</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>162</v>
       </c>
@@ -1502,19 +1503,19 @@
         <v>98</v>
       </c>
       <c r="C30" s="2">
-        <v>19.096</v>
+        <v>19096</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E30" s="2">
-        <v>20.844999999999999</v>
+      <c r="E30">
+        <v>20845</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>162</v>
       </c>
@@ -1522,19 +1523,19 @@
         <v>97</v>
       </c>
       <c r="C31" s="2">
-        <v>23.613</v>
+        <v>23613</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E31" s="2">
-        <v>26.004999999999999</v>
+      <c r="E31">
+        <v>26005</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>162</v>
       </c>
@@ -1542,19 +1543,19 @@
         <v>95</v>
       </c>
       <c r="C32" s="2">
-        <v>22.547000000000001</v>
+        <v>22547</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="E32" s="2">
-        <v>26.356000000000002</v>
+      <c r="E32">
+        <v>26356</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="58" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>162</v>
       </c>
@@ -1562,19 +1563,19 @@
         <v>93</v>
       </c>
       <c r="C33" s="2">
-        <v>23.318000000000001</v>
+        <v>23318</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="E33" s="2">
-        <v>25.367999999999999</v>
+      <c r="E33">
+        <v>25368</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>163</v>
       </c>
@@ -1582,19 +1583,19 @@
         <v>91</v>
       </c>
       <c r="C34" s="2">
-        <v>20.157</v>
+        <v>20157</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="E34" s="2">
-        <v>21.228000000000002</v>
+      <c r="E34">
+        <v>21228</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>163</v>
       </c>
@@ -1602,19 +1603,19 @@
         <v>89</v>
       </c>
       <c r="C35" s="2">
-        <v>18.917999999999999</v>
+        <v>18918</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E35" s="2">
-        <v>20.231999999999999</v>
+      <c r="E35">
+        <v>20232</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>163</v>
       </c>
@@ -1622,19 +1623,19 @@
         <v>88</v>
       </c>
       <c r="C36" s="2">
-        <v>19.577999999999999</v>
+        <v>19578</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E36" s="2">
-        <v>20.753</v>
+      <c r="E36">
+        <v>20753</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>163</v>
       </c>
@@ -1642,19 +1643,19 @@
         <v>87</v>
       </c>
       <c r="C37" s="2">
-        <v>23.416</v>
+        <v>23416</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="E37" s="2">
-        <v>26.859000000000002</v>
+      <c r="E37">
+        <v>26859</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>163</v>
       </c>
@@ -1662,19 +1663,19 @@
         <v>84</v>
       </c>
       <c r="C38" s="2">
-        <v>14.199</v>
+        <v>14199</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="E38" s="2">
-        <v>13.845000000000001</v>
+      <c r="E38">
+        <v>13845</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>163</v>
       </c>
@@ -1682,19 +1683,19 @@
         <v>83</v>
       </c>
       <c r="C39" s="2">
-        <v>15.769</v>
+        <v>15769</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E39" s="2">
-        <v>16.047999999999998</v>
+      <c r="E39">
+        <v>16047.999999999998</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>163</v>
       </c>
@@ -1702,19 +1703,19 @@
         <v>81</v>
       </c>
       <c r="C40" s="2">
-        <v>16.599</v>
+        <v>16599</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E40" s="2">
-        <v>16.215</v>
+      <c r="E40">
+        <v>16215</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>163</v>
       </c>
@@ -1722,19 +1723,19 @@
         <v>80</v>
       </c>
       <c r="C41" s="2">
-        <v>18.359000000000002</v>
+        <v>18359</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E41" s="2">
-        <v>18.641999999999999</v>
+      <c r="E41">
+        <v>18642</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>163</v>
       </c>
@@ -1742,19 +1743,19 @@
         <v>79</v>
       </c>
       <c r="C42" s="2">
-        <v>22.077000000000002</v>
+        <v>22077</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="E42" s="2">
-        <v>23.233000000000001</v>
+      <c r="E42">
+        <v>23233</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>163</v>
       </c>
@@ -1762,19 +1763,19 @@
         <v>77</v>
       </c>
       <c r="C43" s="2">
-        <v>18.350999999999999</v>
+        <v>18351</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E43" s="2">
-        <v>22.352</v>
+      <c r="E43">
+        <v>22352</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>163</v>
       </c>
@@ -1782,19 +1783,19 @@
         <v>76</v>
       </c>
       <c r="C44" s="2">
-        <v>19.359000000000002</v>
+        <v>19359</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="E44" s="2">
-        <v>20.015999999999998</v>
+      <c r="E44">
+        <v>20016</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>164</v>
       </c>
@@ -1802,19 +1803,19 @@
         <v>73</v>
       </c>
       <c r="C45" s="2">
-        <v>18.006</v>
+        <v>18006</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E45" s="2">
-        <v>18.044</v>
+      <c r="E45">
+        <v>18044</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>164</v>
       </c>
@@ -1822,19 +1823,19 @@
         <v>71</v>
       </c>
       <c r="C46" s="2">
-        <v>16.059000000000001</v>
+        <v>16059.000000000002</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E46" s="2">
-        <v>15.587</v>
+      <c r="E46">
+        <v>15587</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>164</v>
       </c>
@@ -1842,19 +1843,19 @@
         <v>68</v>
       </c>
       <c r="C47" s="2">
-        <v>13.183</v>
+        <v>13183</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="E47" s="2">
-        <v>12.74</v>
+      <c r="E47">
+        <v>12740</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>164</v>
       </c>
@@ -1862,19 +1863,19 @@
         <v>67</v>
       </c>
       <c r="C48" s="2">
-        <v>12.205</v>
+        <v>12205</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E48" s="2">
-        <v>10.407999999999999</v>
+      <c r="E48">
+        <v>10408</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>164</v>
       </c>
@@ -1882,19 +1883,19 @@
         <v>66</v>
       </c>
       <c r="C49" s="2">
-        <v>18.190000000000001</v>
+        <v>18190</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E49" s="2">
-        <v>17.158999999999999</v>
+      <c r="E49">
+        <v>17159</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>164</v>
       </c>
@@ -1902,19 +1903,19 @@
         <v>64</v>
       </c>
       <c r="C50" s="2">
-        <v>16.789000000000001</v>
+        <v>16789</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E50" s="2">
-        <v>14.91</v>
+      <c r="E50">
+        <v>14910</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>164</v>
       </c>
@@ -1922,19 +1923,19 @@
         <v>62</v>
       </c>
       <c r="C51" s="2">
-        <v>12.111000000000001</v>
+        <v>12111</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E51" s="2">
-        <v>11.602</v>
+      <c r="E51">
+        <v>11602</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>164</v>
       </c>
@@ -1942,19 +1943,19 @@
         <v>61</v>
       </c>
       <c r="C52" s="2">
-        <v>13.132</v>
+        <v>13132</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="E52" s="2">
-        <v>12.561</v>
+      <c r="E52">
+        <v>12561</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>164</v>
       </c>
@@ -1962,19 +1963,19 @@
         <v>59</v>
       </c>
       <c r="C53" s="2">
-        <v>14.728999999999999</v>
+        <v>14729</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E53" s="2">
-        <v>13.997</v>
+      <c r="E53">
+        <v>13997</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>164</v>
       </c>
@@ -1982,19 +1983,19 @@
         <v>56</v>
       </c>
       <c r="C54" s="2">
-        <v>11.507</v>
+        <v>11507</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E54" s="2">
-        <v>10.718999999999999</v>
+      <c r="E54">
+        <v>10719</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>164</v>
       </c>
@@ -2002,19 +2003,19 @@
         <v>53</v>
       </c>
       <c r="C55" s="2">
-        <v>10.821999999999999</v>
+        <v>10822</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="E55" s="2">
-        <v>10.420999999999999</v>
+      <c r="E55">
+        <v>10421</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>164</v>
       </c>
@@ -2022,19 +2023,19 @@
         <v>50</v>
       </c>
       <c r="C56" s="2">
-        <v>9.827</v>
+        <v>9827</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E56" s="2">
-        <v>9.0090000000000003</v>
+      <c r="E56">
+        <v>9009</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>164</v>
       </c>
@@ -2042,19 +2043,19 @@
         <v>48</v>
       </c>
       <c r="C57" s="2">
-        <v>11.324999999999999</v>
+        <v>11325</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E57" s="2">
-        <v>11.14</v>
+      <c r="E57">
+        <v>11140</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>39</v>
       </c>
@@ -2062,19 +2063,19 @@
         <v>47</v>
       </c>
       <c r="C58" s="2">
-        <v>11.182</v>
+        <v>11182</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E58" s="2">
-        <v>11.081</v>
+      <c r="E58">
+        <v>11081</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>39</v>
       </c>
@@ -2082,19 +2083,19 @@
         <v>44</v>
       </c>
       <c r="C59" s="2">
-        <v>11.295999999999999</v>
+        <v>11296</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E59" s="2">
-        <v>10.071</v>
+      <c r="E59">
+        <v>10071</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>39</v>
       </c>
@@ -2102,19 +2103,19 @@
         <v>41</v>
       </c>
       <c r="C60" s="2">
-        <v>14.37</v>
+        <v>14370</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E60" s="2">
-        <v>14.737</v>
+      <c r="E60">
+        <v>14737</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>39</v>
       </c>
@@ -2122,19 +2123,19 @@
         <v>39</v>
       </c>
       <c r="C61" s="2">
-        <v>19.975999999999999</v>
+        <v>19976</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E61" s="2">
-        <v>21.027999999999999</v>
+      <c r="E61">
+        <v>21028</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>39</v>
       </c>
@@ -2142,19 +2143,19 @@
         <v>36</v>
       </c>
       <c r="C62" s="2">
-        <v>18.585999999999999</v>
+        <v>18586</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E62" s="2">
-        <v>18.587</v>
+      <c r="E62">
+        <v>18587</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>39</v>
       </c>
@@ -2162,19 +2163,19 @@
         <v>33</v>
       </c>
       <c r="C63" s="2">
-        <v>18.372</v>
+        <v>18372</v>
       </c>
       <c r="D63" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E63" s="2">
-        <v>19.149999999999999</v>
+      <c r="E63">
+        <v>19150</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>39</v>
       </c>
@@ -2182,19 +2183,19 @@
         <v>31</v>
       </c>
       <c r="C64" s="2">
-        <v>18.998000000000001</v>
+        <v>18998</v>
       </c>
       <c r="D64" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E64" s="2">
-        <v>19.585999999999999</v>
+      <c r="E64">
+        <v>19586</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>165</v>
       </c>
@@ -2202,19 +2203,19 @@
         <v>29</v>
       </c>
       <c r="C65" s="2">
-        <v>19.646000000000001</v>
+        <v>19646</v>
       </c>
       <c r="D65" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E65" s="2">
-        <v>20.677</v>
+      <c r="E65">
+        <v>20677</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>165</v>
       </c>
@@ -2222,19 +2223,19 @@
         <v>27</v>
       </c>
       <c r="C66" s="2">
-        <v>19.117999999999999</v>
+        <v>19118</v>
       </c>
       <c r="D66" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E66" s="2">
-        <v>20.567</v>
+      <c r="E66">
+        <v>20567</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>165</v>
       </c>
@@ -2242,19 +2243,19 @@
         <v>25</v>
       </c>
       <c r="C67" s="2">
-        <v>20.413</v>
+        <v>20413</v>
       </c>
       <c r="D67" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E67" s="2">
-        <v>22.372</v>
+      <c r="E67">
+        <v>22372</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="58" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>165</v>
       </c>
@@ -2262,19 +2263,19 @@
         <v>22</v>
       </c>
       <c r="C68" s="2">
-        <v>29.155000000000001</v>
+        <v>29155</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E68" s="2">
-        <v>38.325000000000003</v>
+      <c r="E68">
+        <v>38325</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>165</v>
       </c>
@@ -2282,19 +2283,19 @@
         <v>19</v>
       </c>
       <c r="C69" s="2">
-        <v>21.061</v>
+        <v>21061</v>
       </c>
       <c r="D69" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E69" s="2">
-        <v>25.117999999999999</v>
+      <c r="E69">
+        <v>25118</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>165</v>
       </c>
@@ -2302,19 +2303,19 @@
         <v>16</v>
       </c>
       <c r="C70" s="2">
-        <v>24.135999999999999</v>
+        <v>24136</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E70" s="2">
-        <v>30.548999999999999</v>
+      <c r="E70">
+        <v>30549</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>165</v>
       </c>
@@ -2322,19 +2323,19 @@
         <v>13</v>
       </c>
       <c r="C71" s="2">
-        <v>12.247999999999999</v>
+        <v>12248</v>
       </c>
       <c r="D71" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E71" s="2">
-        <v>11.706</v>
+      <c r="E71">
+        <v>11706</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
         <v>165</v>
       </c>
@@ -2342,19 +2343,19 @@
         <v>10</v>
       </c>
       <c r="C72" s="2">
-        <v>18.486000000000001</v>
+        <v>18486</v>
       </c>
       <c r="D72" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E72" s="2">
-        <v>20.495999999999999</v>
+      <c r="E72">
+        <v>20496</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
         <v>165</v>
       </c>
@@ -2362,19 +2363,19 @@
         <v>7</v>
       </c>
       <c r="C73" s="2">
-        <v>17.346</v>
+        <v>17346</v>
       </c>
       <c r="D73" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E73" s="2">
-        <v>17.007999999999999</v>
+      <c r="E73">
+        <v>17008</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
         <v>165</v>
       </c>
@@ -2382,30 +2383,30 @@
         <v>4</v>
       </c>
       <c r="C74" s="2">
-        <v>15.711</v>
+        <v>15711</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E74" s="2">
-        <v>14.622999999999999</v>
+      <c r="E74">
+        <v>14623</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B75" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C75" s="1">
-        <v>20.667000000000002</v>
+      <c r="C75" s="2">
+        <v>20667</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E75" s="1">
-        <v>23.215</v>
+      <c r="E75">
+        <v>23215</v>
       </c>
       <c r="F75" s="1" t="s">
         <v>0</v>
@@ -2413,5 +2414,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>